--- a/biology/Zoologie/Dacentrurus/Dacentrurus.xlsx
+++ b/biology/Zoologie/Dacentrurus/Dacentrurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dacentrurus (nom qui signifie « queue pointue ») est un genre fossile  de dinosaures herbivores de l'infra-ordre des stégosauriens qui vécut à la fin du Jurassique supérieur (Kimméridgien et Tithonien), il y a environ 155 à 150 millions d'années (Ma).
-Le premier spécimen de ce dinosaure a été retrouvé en Angleterre vers 1870[1]. D'autres spécimens ont depuis été découverts en France[2], en Espagne et au Portugal[3].
-Une seule espèce est connue : Dacentrurus armatus[1].
+Le premier spécimen de ce dinosaure a été retrouvé en Angleterre vers 1870. D'autres spécimens ont depuis été découverts en France, en Espagne et au Portugal.
+Une seule espèce est connue : Dacentrurus armatus.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dacentrurus est un stégosauridé massif mesurant 8 mètres de long. Il avait une petite tête et un cerveau gros comme celui du chien. Il possédait une double rangée d'épines le long du dos et de la queue. Il marchait sur ses quatre pattes et se nourrissait de végétaux.
 </t>
@@ -544,9 +558,11 @@
           <t>Cladogramme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les analyses cladistiques réalisées en 2009 et 2010, respectivement par O. Mateus et al.[4] et S. Maidment et al.[5] montrent des résultats similaires et aboutissent à un cladogramme simplifié.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les analyses cladistiques réalisées en 2009 et 2010, respectivement par O. Mateus et al. et S. Maidment et al. montrent des résultats similaires et aboutissent à un cladogramme simplifié.
 Au sein de la sous-famille des Dacentrurinae à laquelle il a donné son nom, Darcentrurus est en groupe-frère avec le genre Miragaia décrit en 2009 à partir de restes fossiles découverts dans le Jurassique supérieur du Portugal.
 </t>
         </is>
